--- a/build/lang/lang.xlsx
+++ b/build/lang/lang.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\vue\marveladmin\build\lang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\marveladmin\build\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="2151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3014" uniqueCount="2155">
   <si>
     <t>key</t>
   </si>
@@ -10903,7 +10903,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -10914,7 +10914,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10944,7 +10944,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10954,7 +10954,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10967,6 +10967,19 @@
   </si>
   <si>
     <t>结算时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单笔限额</t>
+  </si>
+  <si>
+    <t>Single limit</t>
+  </si>
+  <si>
+    <t>giới hạn duy nhất</t>
+  </si>
+  <si>
+    <t>单笔限额</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10974,25 +10987,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -11000,7 +11013,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -11018,7 +11031,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="宋体"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -11029,13 +11042,6 @@
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -11402,19 +11408,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E753"/>
+  <dimension ref="A1:E754"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A744" workbookViewId="0">
-      <selection activeCell="B752" sqref="B752"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="A227" sqref="A227"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="34.375" customWidth="1"/>
     <col min="4" max="4" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11431,7 +11437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -11445,7 +11451,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -11459,7 +11465,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -11473,7 +11479,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -11487,7 +11493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -11501,7 +11507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -11515,7 +11521,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -11529,7 +11535,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -11543,7 +11549,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -11557,7 +11563,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -11571,7 +11577,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="16.5">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -11585,7 +11591,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -11599,7 +11605,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -11613,7 +11619,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -11627,7 +11633,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -11641,7 +11647,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.75">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -11655,7 +11661,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.75">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -11669,7 +11675,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.75">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -11683,7 +11689,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="16.5">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -11697,7 +11703,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="16.5">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -11711,7 +11717,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="16.5">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -11725,7 +11731,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.75">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -11739,7 +11745,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="16.5">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -11753,7 +11759,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.75">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -11767,7 +11773,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.75">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -11781,7 +11787,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="16.5">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -11795,7 +11801,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="16.5">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -11809,7 +11815,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.75">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -11823,7 +11829,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="16.5">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -11837,7 +11843,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.75">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -11851,7 +11857,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.75">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -11865,7 +11871,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15.75">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -11879,7 +11885,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.75">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -11893,7 +11899,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.75">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -11907,7 +11913,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.75">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -11921,7 +11927,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.75">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -11935,7 +11941,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="16.5">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -11949,7 +11955,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="16.5">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -11963,7 +11969,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.75">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -11977,7 +11983,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="16.5">
       <c r="A41" t="s">
         <v>71</v>
       </c>
@@ -11991,7 +11997,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="15.75">
       <c r="A42" t="s">
         <v>73</v>
       </c>
@@ -12005,7 +12011,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.75">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -12019,7 +12025,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="16.5">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -12033,7 +12039,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="16.5">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -12047,7 +12053,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.75">
       <c r="A46" t="s">
         <v>81</v>
       </c>
@@ -12061,7 +12067,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.75">
       <c r="A47" t="s">
         <v>83</v>
       </c>
@@ -12075,7 +12081,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.75">
       <c r="A48" t="s">
         <v>85</v>
       </c>
@@ -12089,7 +12095,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75">
       <c r="A49" t="s">
         <v>87</v>
       </c>
@@ -12103,7 +12109,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75">
       <c r="A50" t="s">
         <v>89</v>
       </c>
@@ -12117,7 +12123,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="16.5">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -12131,7 +12137,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.75">
       <c r="A52" t="s">
         <v>94</v>
       </c>
@@ -12145,7 +12151,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -12159,7 +12165,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75">
       <c r="A54" t="s">
         <v>99</v>
       </c>
@@ -12173,7 +12179,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -12187,7 +12193,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="15.75">
       <c r="A56" t="s">
         <v>104</v>
       </c>
@@ -12201,7 +12207,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75">
       <c r="A57" t="s">
         <v>107</v>
       </c>
@@ -12215,7 +12221,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75">
       <c r="A58" t="s">
         <v>109</v>
       </c>
@@ -12229,7 +12235,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75">
       <c r="A59" t="s">
         <v>112</v>
       </c>
@@ -12243,7 +12249,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75">
       <c r="A60" t="s">
         <v>114</v>
       </c>
@@ -12257,7 +12263,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.75">
       <c r="A61" t="s">
         <v>116</v>
       </c>
@@ -12271,7 +12277,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="15.75">
       <c r="A62" t="s">
         <v>119</v>
       </c>
@@ -12285,7 +12291,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15.75">
       <c r="A63" t="s">
         <v>121</v>
       </c>
@@ -12299,7 +12305,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="15.75">
       <c r="A64" t="s">
         <v>123</v>
       </c>
@@ -12313,7 +12319,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="15.75">
       <c r="A65" t="s">
         <v>125</v>
       </c>
@@ -12327,7 +12333,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="15.75">
       <c r="A66" t="s">
         <v>127</v>
       </c>
@@ -12341,7 +12347,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="15.75">
       <c r="A67" t="s">
         <v>130</v>
       </c>
@@ -12355,7 +12361,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="15.75">
       <c r="A68" t="s">
         <v>133</v>
       </c>
@@ -12369,7 +12375,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="15.75">
       <c r="A69" t="s">
         <v>135</v>
       </c>
@@ -12383,7 +12389,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="15.75">
       <c r="A70" t="s">
         <v>137</v>
       </c>
@@ -12397,7 +12403,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="15.75">
       <c r="A71" t="s">
         <v>139</v>
       </c>
@@ -12411,7 +12417,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="15.75">
       <c r="A72" t="s">
         <v>141</v>
       </c>
@@ -12425,7 +12431,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="15.75">
       <c r="A73" t="s">
         <v>143</v>
       </c>
@@ -12439,7 +12445,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="15.75">
       <c r="A74" t="s">
         <v>145</v>
       </c>
@@ -12453,7 +12459,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="16.5">
       <c r="A75" t="s">
         <v>147</v>
       </c>
@@ -12467,7 +12473,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="15.75">
       <c r="A76" t="s">
         <v>149</v>
       </c>
@@ -12481,7 +12487,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="15.75">
       <c r="A77" t="s">
         <v>151</v>
       </c>
@@ -12495,7 +12501,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="15.75">
       <c r="A78" t="s">
         <v>153</v>
       </c>
@@ -12509,7 +12515,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="15.75">
       <c r="A79" t="s">
         <v>155</v>
       </c>
@@ -12523,7 +12529,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="15.75">
       <c r="A80" t="s">
         <v>157</v>
       </c>
@@ -12537,7 +12543,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="15.75">
       <c r="A81" t="s">
         <v>159</v>
       </c>
@@ -12551,7 +12557,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="15.75">
       <c r="A82" t="s">
         <v>161</v>
       </c>
@@ -12565,7 +12571,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="15.75">
       <c r="A83" t="s">
         <v>163</v>
       </c>
@@ -12579,7 +12585,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="15.75">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -12593,7 +12599,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="15.75">
       <c r="A85" t="s">
         <v>168</v>
       </c>
@@ -12607,7 +12613,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="15.75">
       <c r="A86" t="s">
         <v>170</v>
       </c>
@@ -12621,7 +12627,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="15.75">
       <c r="A87" t="s">
         <v>172</v>
       </c>
@@ -12635,7 +12641,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="15.75">
       <c r="A88" t="s">
         <v>174</v>
       </c>
@@ -12649,7 +12655,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="15.75">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -12663,7 +12669,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="15.75">
       <c r="A90" t="s">
         <v>179</v>
       </c>
@@ -12677,7 +12683,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="15.75">
       <c r="A91" t="s">
         <v>181</v>
       </c>
@@ -12691,7 +12697,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="15.75">
       <c r="A92" t="s">
         <v>183</v>
       </c>
@@ -12705,7 +12711,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="16.5">
       <c r="A93" t="s">
         <v>185</v>
       </c>
@@ -12719,7 +12725,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="15.75">
       <c r="A94" t="s">
         <v>187</v>
       </c>
@@ -12733,7 +12739,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="15.75">
       <c r="A95" t="s">
         <v>190</v>
       </c>
@@ -12747,7 +12753,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="15.75">
       <c r="A96" t="s">
         <v>192</v>
       </c>
@@ -12761,7 +12767,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="15.75">
       <c r="A97" t="s">
         <v>194</v>
       </c>
@@ -12775,7 +12781,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="15.75">
       <c r="A98" t="s">
         <v>196</v>
       </c>
@@ -12789,7 +12795,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="15.75">
       <c r="A99" t="s">
         <v>198</v>
       </c>
@@ -12803,7 +12809,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="16.5">
       <c r="A100" t="s">
         <v>200</v>
       </c>
@@ -12817,7 +12823,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="15.75">
       <c r="A101" t="s">
         <v>202</v>
       </c>
@@ -12831,7 +12837,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="15.75">
       <c r="A102" t="s">
         <v>204</v>
       </c>
@@ -12845,7 +12851,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="15.75">
       <c r="A103" t="s">
         <v>206</v>
       </c>
@@ -12859,7 +12865,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="15.75">
       <c r="A104" t="s">
         <v>208</v>
       </c>
@@ -12873,7 +12879,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="15.75">
       <c r="A105" t="s">
         <v>210</v>
       </c>
@@ -12887,7 +12893,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="16.5">
       <c r="A106" t="s">
         <v>212</v>
       </c>
@@ -12901,7 +12907,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="15.75">
       <c r="A107" t="s">
         <v>214</v>
       </c>
@@ -12915,7 +12921,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="15.75">
       <c r="A108" t="s">
         <v>216</v>
       </c>
@@ -12929,7 +12935,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="15.75">
       <c r="A109" t="s">
         <v>218</v>
       </c>
@@ -12943,7 +12949,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="15.75">
       <c r="A110" t="s">
         <v>220</v>
       </c>
@@ -12957,7 +12963,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="16.5">
       <c r="A111" t="s">
         <v>223</v>
       </c>
@@ -12971,7 +12977,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="15.75">
       <c r="A112" t="s">
         <v>225</v>
       </c>
@@ -12985,7 +12991,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="15.75">
       <c r="A113" t="s">
         <v>227</v>
       </c>
@@ -12999,7 +13005,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="15.75">
       <c r="A114" t="s">
         <v>229</v>
       </c>
@@ -13013,7 +13019,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="15.75">
       <c r="A115" t="s">
         <v>231</v>
       </c>
@@ -13027,7 +13033,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="15.75">
       <c r="A116" t="s">
         <v>233</v>
       </c>
@@ -13041,7 +13047,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="15.75">
       <c r="A117" t="s">
         <v>235</v>
       </c>
@@ -13055,7 +13061,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="15.75">
       <c r="A118" t="s">
         <v>237</v>
       </c>
@@ -13069,7 +13075,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="15.75">
       <c r="A119" t="s">
         <v>239</v>
       </c>
@@ -13083,7 +13089,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="15.75">
       <c r="A120" t="s">
         <v>242</v>
       </c>
@@ -13097,7 +13103,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="16.5">
       <c r="A121" t="s">
         <v>245</v>
       </c>
@@ -13111,7 +13117,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="15.75">
       <c r="A122" t="s">
         <v>246</v>
       </c>
@@ -13125,7 +13131,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="15.75">
       <c r="A123" t="s">
         <v>248</v>
       </c>
@@ -13139,7 +13145,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="15.75">
       <c r="A124" t="s">
         <v>250</v>
       </c>
@@ -13153,7 +13159,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="15.75">
       <c r="A125" t="s">
         <v>252</v>
       </c>
@@ -13167,7 +13173,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="15.75">
       <c r="A126" t="s">
         <v>255</v>
       </c>
@@ -13181,7 +13187,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="15.75">
       <c r="A127" t="s">
         <v>256</v>
       </c>
@@ -13195,7 +13201,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="15.75">
       <c r="A128" t="s">
         <v>258</v>
       </c>
@@ -13209,7 +13215,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="15.75">
       <c r="A129" t="s">
         <v>260</v>
       </c>
@@ -13223,7 +13229,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="15.75">
       <c r="A130" t="s">
         <v>262</v>
       </c>
@@ -13237,7 +13243,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="15.75">
       <c r="A131" t="s">
         <v>264</v>
       </c>
@@ -13251,7 +13257,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="15.75">
       <c r="A132" t="s">
         <v>267</v>
       </c>
@@ -13265,7 +13271,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="15.75">
       <c r="A133" t="s">
         <v>269</v>
       </c>
@@ -13279,7 +13285,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="15.75">
       <c r="A134" t="s">
         <v>271</v>
       </c>
@@ -13293,7 +13299,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="16.5">
       <c r="A135" t="s">
         <v>273</v>
       </c>
@@ -13307,7 +13313,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="15.75">
       <c r="A136" t="s">
         <v>275</v>
       </c>
@@ -13321,7 +13327,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="15.75">
       <c r="A137" t="s">
         <v>277</v>
       </c>
@@ -13335,7 +13341,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="15.75">
       <c r="A138" t="s">
         <v>279</v>
       </c>
@@ -13349,7 +13355,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="15.75">
       <c r="A139" t="s">
         <v>282</v>
       </c>
@@ -13363,7 +13369,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="15.75">
       <c r="A140" t="s">
         <v>285</v>
       </c>
@@ -13377,7 +13383,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="15.75">
       <c r="A141" t="s">
         <v>287</v>
       </c>
@@ -13391,7 +13397,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="15.75">
       <c r="A142" t="s">
         <v>289</v>
       </c>
@@ -13405,7 +13411,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="15.75">
       <c r="A143" t="s">
         <v>291</v>
       </c>
@@ -13419,7 +13425,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="15.75">
       <c r="A144" t="s">
         <v>293</v>
       </c>
@@ -13433,7 +13439,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="15.75">
       <c r="A145" t="s">
         <v>295</v>
       </c>
@@ -13447,7 +13453,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="15.75">
       <c r="A146" t="s">
         <v>297</v>
       </c>
@@ -13461,7 +13467,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="15.75">
       <c r="A147" t="s">
         <v>299</v>
       </c>
@@ -13475,7 +13481,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" ht="16.5">
       <c r="A148" t="s">
         <v>301</v>
       </c>
@@ -13489,7 +13495,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="15.75">
       <c r="A149" t="s">
         <v>303</v>
       </c>
@@ -13503,7 +13509,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="15.75">
       <c r="A150" t="s">
         <v>305</v>
       </c>
@@ -13517,7 +13523,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="15.75">
       <c r="A151" t="s">
         <v>308</v>
       </c>
@@ -13531,7 +13537,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="16.5">
       <c r="A152" t="s">
         <v>310</v>
       </c>
@@ -13545,7 +13551,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="16.5">
       <c r="A153" t="s">
         <v>312</v>
       </c>
@@ -13559,7 +13565,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="15.75">
       <c r="A154" t="s">
         <v>314</v>
       </c>
@@ -13573,7 +13579,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="15.75">
       <c r="A155" t="s">
         <v>317</v>
       </c>
@@ -13587,7 +13593,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="15.75">
       <c r="A156" t="s">
         <v>319</v>
       </c>
@@ -13601,7 +13607,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="15.75">
       <c r="A157" t="s">
         <v>321</v>
       </c>
@@ -13615,7 +13621,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="15.75">
       <c r="A158" t="s">
         <v>323</v>
       </c>
@@ -13629,7 +13635,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" ht="16.5">
       <c r="A159" t="s">
         <v>325</v>
       </c>
@@ -13643,7 +13649,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" ht="15.75">
       <c r="A160" t="s">
         <v>328</v>
       </c>
@@ -13657,7 +13663,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" ht="15.75">
       <c r="A161" t="s">
         <v>330</v>
       </c>
@@ -13671,7 +13677,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="15.75">
       <c r="A162" t="s">
         <v>333</v>
       </c>
@@ -13685,7 +13691,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="15.75">
       <c r="A163" t="s">
         <v>335</v>
       </c>
@@ -13699,7 +13705,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" ht="15.75">
       <c r="A164" t="s">
         <v>337</v>
       </c>
@@ -13713,7 +13719,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="16.5">
       <c r="A165" t="s">
         <v>340</v>
       </c>
@@ -13727,7 +13733,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="16.5">
       <c r="A166" t="s">
         <v>342</v>
       </c>
@@ -13741,7 +13747,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="15.75">
       <c r="A167" t="s">
         <v>344</v>
       </c>
@@ -13755,7 +13761,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="15.75">
       <c r="A168" t="s">
         <v>346</v>
       </c>
@@ -13769,7 +13775,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="16.5">
       <c r="A169" t="s">
         <v>342</v>
       </c>
@@ -13783,7 +13789,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="16.5">
       <c r="A170" t="s">
         <v>349</v>
       </c>
@@ -13797,7 +13803,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="15.75">
       <c r="A171" t="s">
         <v>351</v>
       </c>
@@ -13811,7 +13817,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" ht="15.75">
       <c r="A172" t="s">
         <v>353</v>
       </c>
@@ -13825,7 +13831,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" ht="16.5">
       <c r="A173" t="s">
         <v>355</v>
       </c>
@@ -13839,7 +13845,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" ht="15.75">
       <c r="A174" t="s">
         <v>357</v>
       </c>
@@ -13853,7 +13859,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" ht="15.75">
       <c r="A175" t="s">
         <v>359</v>
       </c>
@@ -13867,7 +13873,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" ht="15.75">
       <c r="A176" t="s">
         <v>361</v>
       </c>
@@ -13881,7 +13887,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="15.75">
       <c r="A177" t="s">
         <v>363</v>
       </c>
@@ -13895,7 +13901,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" ht="15.75">
       <c r="A178" t="s">
         <v>365</v>
       </c>
@@ -13909,7 +13915,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" ht="15.75">
       <c r="A179" t="s">
         <v>367</v>
       </c>
@@ -13923,7 +13929,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="15.75">
       <c r="A180" t="s">
         <v>369</v>
       </c>
@@ -13937,7 +13943,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="16.5">
       <c r="A181" t="s">
         <v>371</v>
       </c>
@@ -13951,7 +13957,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" ht="16.5">
       <c r="A182" t="s">
         <v>373</v>
       </c>
@@ -13965,7 +13971,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" ht="16.5">
       <c r="A183" t="s">
         <v>375</v>
       </c>
@@ -13979,7 +13985,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" ht="15.75">
       <c r="A184" t="s">
         <v>377</v>
       </c>
@@ -13990,7 +13996,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="15.75">
       <c r="A185" t="s">
         <v>378</v>
       </c>
@@ -14004,7 +14010,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="16.5">
       <c r="A186" t="s">
         <v>380</v>
       </c>
@@ -14018,7 +14024,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="15.75">
       <c r="A187" t="s">
         <v>382</v>
       </c>
@@ -14032,7 +14038,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="15.75">
       <c r="A188" t="s">
         <v>384</v>
       </c>
@@ -14046,7 +14052,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="15.75">
       <c r="A189" t="s">
         <v>387</v>
       </c>
@@ -14060,7 +14066,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" ht="15.75">
       <c r="A190" t="s">
         <v>390</v>
       </c>
@@ -14074,7 +14080,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" ht="15.75">
       <c r="A191" t="s">
         <v>393</v>
       </c>
@@ -14088,7 +14094,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" ht="15.75">
       <c r="A192" t="s">
         <v>395</v>
       </c>
@@ -14102,7 +14108,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="15.75">
       <c r="A193" t="s">
         <v>397</v>
       </c>
@@ -14116,7 +14122,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="15.75">
       <c r="A194" t="s">
         <v>399</v>
       </c>
@@ -14130,7 +14136,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" ht="15.75">
       <c r="A195" t="s">
         <v>401</v>
       </c>
@@ -14144,7 +14150,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="15.75">
       <c r="A196" t="s">
         <v>403</v>
       </c>
@@ -14158,7 +14164,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" ht="15.75">
       <c r="A197" t="s">
         <v>405</v>
       </c>
@@ -14172,7 +14178,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="16.5">
       <c r="A198" t="s">
         <v>407</v>
       </c>
@@ -14186,7 +14192,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" ht="15.75">
       <c r="A199" t="s">
         <v>409</v>
       </c>
@@ -14200,7 +14206,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" ht="15.75">
       <c r="A200" t="s">
         <v>411</v>
       </c>
@@ -14214,7 +14220,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" ht="15.75">
       <c r="A201" t="s">
         <v>413</v>
       </c>
@@ -14228,7 +14234,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" ht="15.75">
       <c r="A202" t="s">
         <v>415</v>
       </c>
@@ -14242,7 +14248,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" ht="15.75">
       <c r="A203" t="s">
         <v>417</v>
       </c>
@@ -14256,7 +14262,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="15.75">
       <c r="A204" t="s">
         <v>419</v>
       </c>
@@ -14270,7 +14276,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" ht="15.75">
       <c r="A205" t="s">
         <v>421</v>
       </c>
@@ -14284,7 +14290,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" ht="15.75">
       <c r="A206" t="s">
         <v>423</v>
       </c>
@@ -14298,7 +14304,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" ht="16.5">
       <c r="A207" t="s">
         <v>425</v>
       </c>
@@ -14312,7 +14318,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" ht="16.5">
       <c r="A208" t="s">
         <v>427</v>
       </c>
@@ -14326,7 +14332,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="15.75">
       <c r="A209" t="s">
         <v>429</v>
       </c>
@@ -14340,7 +14346,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" ht="15.75">
       <c r="A210" t="s">
         <v>431</v>
       </c>
@@ -14354,7 +14360,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" ht="16.5">
       <c r="A211" t="s">
         <v>433</v>
       </c>
@@ -14368,7 +14374,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" ht="15.75">
       <c r="A212" t="s">
         <v>435</v>
       </c>
@@ -14382,7 +14388,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" ht="16.5">
       <c r="A213" t="s">
         <v>438</v>
       </c>
@@ -14396,7 +14402,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" ht="15.75">
       <c r="A214" t="s">
         <v>440</v>
       </c>
@@ -14410,7 +14416,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" ht="15.75">
       <c r="A215" t="s">
         <v>442</v>
       </c>
@@ -14424,7 +14430,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" ht="15.75">
       <c r="A216" t="s">
         <v>443</v>
       </c>
@@ -14438,7 +14444,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" ht="16.5">
       <c r="A217" t="s">
         <v>444</v>
       </c>
@@ -14452,7 +14458,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" ht="15.75">
       <c r="A218" t="s">
         <v>446</v>
       </c>
@@ -14466,7 +14472,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" ht="16.5">
       <c r="A219" t="s">
         <v>449</v>
       </c>
@@ -14480,7 +14486,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" ht="16.5">
       <c r="A220" t="s">
         <v>451</v>
       </c>
@@ -14494,7 +14500,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" ht="15.75">
       <c r="A221" t="s">
         <v>453</v>
       </c>
@@ -14508,7 +14514,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" ht="15.75">
       <c r="A222" t="s">
         <v>455</v>
       </c>
@@ -14522,7 +14528,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" ht="16.5">
       <c r="A223" t="s">
         <v>457</v>
       </c>
@@ -14536,7 +14542,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" ht="15.75">
       <c r="A224" t="s">
         <v>459</v>
       </c>
@@ -14550,7 +14556,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" ht="15.75">
       <c r="A225" t="s">
         <v>461</v>
       </c>
@@ -14564,7 +14570,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" ht="16.5">
       <c r="A226" t="s">
         <v>464</v>
       </c>
@@ -14578,7 +14584,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" ht="16.5">
       <c r="A227" t="s">
         <v>466</v>
       </c>
@@ -14592,7 +14598,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" ht="16.5">
       <c r="A228" t="s">
         <v>468</v>
       </c>
@@ -14606,7 +14612,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" ht="15.75">
       <c r="A229" t="s">
         <v>470</v>
       </c>
@@ -14620,7 +14626,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" ht="15.75">
       <c r="A230" t="s">
         <v>472</v>
       </c>
@@ -14634,7 +14640,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" ht="15.75">
       <c r="A231" t="s">
         <v>474</v>
       </c>
@@ -14648,7 +14654,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" ht="15.75">
       <c r="A232" t="s">
         <v>476</v>
       </c>
@@ -14662,7 +14668,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" ht="15.75">
       <c r="A233" t="s">
         <v>477</v>
       </c>
@@ -14676,7 +14682,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" ht="15.75">
       <c r="A234" t="s">
         <v>479</v>
       </c>
@@ -14690,7 +14696,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" ht="15.75">
       <c r="A235" t="s">
         <v>481</v>
       </c>
@@ -14704,7 +14710,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" ht="15.75">
       <c r="A236" t="s">
         <v>483</v>
       </c>
@@ -14718,7 +14724,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" ht="15.75">
       <c r="A237" t="s">
         <v>485</v>
       </c>
@@ -14732,7 +14738,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" ht="15.75">
       <c r="A238" t="s">
         <v>487</v>
       </c>
@@ -14746,7 +14752,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" ht="15.75">
       <c r="A239" t="s">
         <v>489</v>
       </c>
@@ -14760,7 +14766,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" ht="16.5">
       <c r="A240" t="s">
         <v>491</v>
       </c>
@@ -14774,7 +14780,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" ht="15.75">
       <c r="A241" t="s">
         <v>493</v>
       </c>
@@ -14788,7 +14794,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" ht="15.75">
       <c r="A242" t="s">
         <v>496</v>
       </c>
@@ -14802,7 +14808,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" ht="15.75">
       <c r="A243" t="s">
         <v>498</v>
       </c>
@@ -14816,7 +14822,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" ht="15.75">
       <c r="A244" t="s">
         <v>500</v>
       </c>
@@ -14830,7 +14836,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" ht="15.75">
       <c r="A245" t="s">
         <v>502</v>
       </c>
@@ -14844,7 +14850,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" ht="16.5">
       <c r="A246" t="s">
         <v>505</v>
       </c>
@@ -14858,7 +14864,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" ht="15.75">
       <c r="A247" t="s">
         <v>507</v>
       </c>
@@ -14872,7 +14878,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" ht="15.75">
       <c r="A248" t="s">
         <v>509</v>
       </c>
@@ -14886,7 +14892,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" ht="15.75">
       <c r="A249" t="s">
         <v>511</v>
       </c>
@@ -14900,7 +14906,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" ht="15.75">
       <c r="A250" t="s">
         <v>513</v>
       </c>
@@ -14914,7 +14920,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" ht="15.75">
       <c r="A251" t="s">
         <v>515</v>
       </c>
@@ -14928,7 +14934,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" ht="16.5">
       <c r="A252" t="s">
         <v>517</v>
       </c>
@@ -14942,7 +14948,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" ht="15.75">
       <c r="A253" t="s">
         <v>519</v>
       </c>
@@ -14956,7 +14962,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" ht="16.5">
       <c r="A254" t="s">
         <v>521</v>
       </c>
@@ -14970,7 +14976,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" ht="15.75">
       <c r="A255" t="s">
         <v>523</v>
       </c>
@@ -14984,7 +14990,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" ht="16.5">
       <c r="A256" t="s">
         <v>525</v>
       </c>
@@ -14998,7 +15004,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" ht="16.5">
       <c r="A257" t="s">
         <v>527</v>
       </c>
@@ -15012,7 +15018,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" ht="15.75">
       <c r="A258" t="s">
         <v>529</v>
       </c>
@@ -15026,7 +15032,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" ht="15.75">
       <c r="A259" t="s">
         <v>531</v>
       </c>
@@ -15040,7 +15046,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" ht="15.75">
       <c r="A260" t="s">
         <v>534</v>
       </c>
@@ -15054,7 +15060,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" ht="15.75">
       <c r="A261" t="s">
         <v>536</v>
       </c>
@@ -15068,7 +15074,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" ht="15.75">
       <c r="A262" t="s">
         <v>538</v>
       </c>
@@ -15082,7 +15088,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" ht="15.75">
       <c r="A263" t="s">
         <v>540</v>
       </c>
@@ -15096,7 +15102,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" ht="15.75">
       <c r="A264" t="s">
         <v>542</v>
       </c>
@@ -15110,7 +15116,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" ht="15.75">
       <c r="A265" t="s">
         <v>544</v>
       </c>
@@ -15124,7 +15130,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" ht="15.75">
       <c r="A266" t="s">
         <v>547</v>
       </c>
@@ -15138,7 +15144,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" ht="16.5">
       <c r="A267" t="s">
         <v>549</v>
       </c>
@@ -15152,7 +15158,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" ht="16.5">
       <c r="A268" t="s">
         <v>551</v>
       </c>
@@ -15166,7 +15172,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" ht="15.75">
       <c r="A269" t="s">
         <v>553</v>
       </c>
@@ -15180,7 +15186,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" ht="15.75">
       <c r="A270" t="s">
         <v>555</v>
       </c>
@@ -15194,7 +15200,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" ht="15.75">
       <c r="A271" t="s">
         <v>557</v>
       </c>
@@ -15208,7 +15214,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" ht="15.75">
       <c r="A272" t="s">
         <v>559</v>
       </c>
@@ -15222,7 +15228,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" ht="15.75">
       <c r="A273" t="s">
         <v>561</v>
       </c>
@@ -15236,7 +15242,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" ht="15.75">
       <c r="A274" t="s">
         <v>563</v>
       </c>
@@ -15250,7 +15256,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" ht="15.75">
       <c r="A275" t="s">
         <v>565</v>
       </c>
@@ -15264,7 +15270,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" ht="16.5">
       <c r="A276" t="s">
         <v>567</v>
       </c>
@@ -15278,7 +15284,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" ht="15.75">
       <c r="A277" t="s">
         <v>569</v>
       </c>
@@ -15292,7 +15298,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" ht="15.75">
       <c r="A278" t="s">
         <v>571</v>
       </c>
@@ -15306,7 +15312,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" ht="16.5">
       <c r="A279" t="s">
         <v>574</v>
       </c>
@@ -15320,7 +15326,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" ht="16.5">
       <c r="A280" t="s">
         <v>576</v>
       </c>
@@ -15334,7 +15340,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" ht="16.5">
       <c r="A281" t="s">
         <v>578</v>
       </c>
@@ -15348,7 +15354,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" ht="15.75">
       <c r="A282" t="s">
         <v>580</v>
       </c>
@@ -15362,7 +15368,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" ht="16.5">
       <c r="A283" t="s">
         <v>582</v>
       </c>
@@ -15376,7 +15382,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" ht="15.75">
       <c r="A284" t="s">
         <v>584</v>
       </c>
@@ -15390,7 +15396,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" ht="15.75">
       <c r="A285" t="s">
         <v>586</v>
       </c>
@@ -15404,7 +15410,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" ht="15.75">
       <c r="A286" t="s">
         <v>589</v>
       </c>
@@ -15418,7 +15424,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" ht="15.75">
       <c r="A287" t="s">
         <v>591</v>
       </c>
@@ -15432,7 +15438,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" ht="15.75">
       <c r="A288" t="s">
         <v>593</v>
       </c>
@@ -15446,7 +15452,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" ht="15.75">
       <c r="A289" t="s">
         <v>596</v>
       </c>
@@ -15460,7 +15466,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" ht="15.75">
       <c r="A290" t="s">
         <v>599</v>
       </c>
@@ -15474,7 +15480,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" ht="15.75">
       <c r="A291" t="s">
         <v>602</v>
       </c>
@@ -15488,7 +15494,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" ht="15.75">
       <c r="A292" t="s">
         <v>604</v>
       </c>
@@ -15502,7 +15508,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" ht="15.75">
       <c r="A293" t="s">
         <v>607</v>
       </c>
@@ -15516,7 +15522,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" ht="15.75">
       <c r="A294" t="s">
         <v>609</v>
       </c>
@@ -15530,7 +15536,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" ht="15.75">
       <c r="A295" t="s">
         <v>611</v>
       </c>
@@ -15544,7 +15550,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" ht="15.75">
       <c r="A296" t="s">
         <v>613</v>
       </c>
@@ -15558,7 +15564,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" ht="15.75">
       <c r="A297" t="s">
         <v>615</v>
       </c>
@@ -15572,7 +15578,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" ht="15.75">
       <c r="A298" t="s">
         <v>617</v>
       </c>
@@ -15586,7 +15592,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" ht="16.5">
       <c r="A299" t="s">
         <v>619</v>
       </c>
@@ -15600,7 +15606,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" ht="15.75">
       <c r="A300" t="s">
         <v>621</v>
       </c>
@@ -15614,7 +15620,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" ht="16.5">
       <c r="A301" t="s">
         <v>623</v>
       </c>
@@ -15628,7 +15634,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" ht="16.5">
       <c r="A302" t="s">
         <v>625</v>
       </c>
@@ -15642,7 +15648,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" ht="16.5">
       <c r="A303" t="s">
         <v>627</v>
       </c>
@@ -15656,7 +15662,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" ht="15.75">
       <c r="A304" t="s">
         <v>629</v>
       </c>
@@ -15670,7 +15676,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" ht="15.75">
       <c r="A305" t="s">
         <v>632</v>
       </c>
@@ -15684,7 +15690,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" ht="15.75">
       <c r="A306" t="s">
         <v>634</v>
       </c>
@@ -15698,7 +15704,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" ht="16.5">
       <c r="A307" t="s">
         <v>637</v>
       </c>
@@ -15712,7 +15718,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" ht="16.5">
       <c r="A308" t="s">
         <v>639</v>
       </c>
@@ -15726,7 +15732,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" ht="15.75">
       <c r="A309" t="s">
         <v>640</v>
       </c>
@@ -15740,7 +15746,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" ht="15.75">
       <c r="A310" t="s">
         <v>642</v>
       </c>
@@ -15754,7 +15760,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" ht="15.75">
       <c r="A311" t="s">
         <v>644</v>
       </c>
@@ -15768,7 +15774,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" ht="16.5">
       <c r="A312" t="s">
         <v>646</v>
       </c>
@@ -15782,7 +15788,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" ht="16.5">
       <c r="A313" t="s">
         <v>648</v>
       </c>
@@ -15796,7 +15802,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" ht="15.75">
       <c r="A314" t="s">
         <v>650</v>
       </c>
@@ -15810,7 +15816,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" ht="15.75">
       <c r="A315" t="s">
         <v>652</v>
       </c>
@@ -15824,7 +15830,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" ht="16.5">
       <c r="A316" t="s">
         <v>654</v>
       </c>
@@ -15838,7 +15844,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" ht="15.75">
       <c r="A317" t="s">
         <v>656</v>
       </c>
@@ -15852,7 +15858,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" ht="16.5">
       <c r="A318" t="s">
         <v>658</v>
       </c>
@@ -15866,7 +15872,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" ht="16.5">
       <c r="A319" t="s">
         <v>660</v>
       </c>
@@ -15880,7 +15886,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" ht="15.75">
       <c r="A320" t="s">
         <v>662</v>
       </c>
@@ -15894,7 +15900,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" ht="15.75">
       <c r="A321" t="s">
         <v>664</v>
       </c>
@@ -15908,7 +15914,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" ht="15.75">
       <c r="A322" t="s">
         <v>666</v>
       </c>
@@ -15922,7 +15928,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" ht="15.75">
       <c r="A323" t="s">
         <v>669</v>
       </c>
@@ -15936,7 +15942,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" ht="15.75">
       <c r="A324" t="s">
         <v>671</v>
       </c>
@@ -15950,7 +15956,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" ht="15.75">
       <c r="A325" t="s">
         <v>673</v>
       </c>
@@ -15964,7 +15970,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" ht="15.75">
       <c r="A326" t="s">
         <v>675</v>
       </c>
@@ -15978,7 +15984,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" ht="15.75">
       <c r="A327" t="s">
         <v>677</v>
       </c>
@@ -15992,7 +15998,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" ht="15.75">
       <c r="A328" t="s">
         <v>679</v>
       </c>
@@ -16006,7 +16012,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" ht="15.75">
       <c r="A329" t="s">
         <v>681</v>
       </c>
@@ -16020,7 +16026,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" ht="15.75">
       <c r="A330" t="s">
         <v>683</v>
       </c>
@@ -16034,7 +16040,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" ht="15.75">
       <c r="A331" t="s">
         <v>685</v>
       </c>
@@ -16048,7 +16054,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" ht="15.75">
       <c r="A332" t="s">
         <v>687</v>
       </c>
@@ -16062,7 +16068,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" ht="15.75">
       <c r="A333" t="s">
         <v>690</v>
       </c>
@@ -16076,7 +16082,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" ht="15.75">
       <c r="A334" t="s">
         <v>693</v>
       </c>
@@ -16090,7 +16096,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" ht="15.75">
       <c r="A335" t="s">
         <v>695</v>
       </c>
@@ -16104,7 +16110,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" ht="15.75">
       <c r="A336" t="s">
         <v>698</v>
       </c>
@@ -16118,7 +16124,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" ht="15.75">
       <c r="A337" t="s">
         <v>700</v>
       </c>
@@ -16132,7 +16138,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" ht="15.75">
       <c r="A338" t="s">
         <v>703</v>
       </c>
@@ -16146,7 +16152,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" ht="16.5">
       <c r="A339" t="s">
         <v>705</v>
       </c>
@@ -16160,7 +16166,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" ht="15.75">
       <c r="A340" t="s">
         <v>707</v>
       </c>
@@ -16174,7 +16180,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" ht="15.75">
       <c r="A341" t="s">
         <v>710</v>
       </c>
@@ -16188,7 +16194,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" ht="15.75">
       <c r="A342" t="s">
         <v>712</v>
       </c>
@@ -16202,7 +16208,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" ht="15.75">
       <c r="A343" t="s">
         <v>714</v>
       </c>
@@ -16216,7 +16222,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" ht="15.75">
       <c r="A344" t="s">
         <v>716</v>
       </c>
@@ -16230,7 +16236,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" ht="15.75">
       <c r="A345" t="s">
         <v>718</v>
       </c>
@@ -16244,7 +16250,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" ht="15.75">
       <c r="A346" t="s">
         <v>720</v>
       </c>
@@ -16258,7 +16264,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" ht="15.75">
       <c r="A347" t="s">
         <v>722</v>
       </c>
@@ -16272,7 +16278,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" ht="15.75">
       <c r="A348" t="s">
         <v>724</v>
       </c>
@@ -16286,7 +16292,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" ht="15.75">
       <c r="A349" t="s">
         <v>726</v>
       </c>
@@ -16300,7 +16306,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" ht="16.5">
       <c r="A350" t="s">
         <v>728</v>
       </c>
@@ -16314,7 +16320,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" ht="16.5">
       <c r="A351" t="s">
         <v>730</v>
       </c>
@@ -16328,7 +16334,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" ht="15.75">
       <c r="A352" t="s">
         <v>732</v>
       </c>
@@ -16342,7 +16348,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" ht="15.75">
       <c r="A353" t="s">
         <v>735</v>
       </c>
@@ -16356,7 +16362,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" ht="15.75">
       <c r="A354" t="s">
         <v>737</v>
       </c>
@@ -16370,7 +16376,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" ht="15.75">
       <c r="A355" t="s">
         <v>740</v>
       </c>
@@ -16384,7 +16390,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" ht="15.75">
       <c r="A356" t="s">
         <v>742</v>
       </c>
@@ -16398,7 +16404,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" ht="16.5">
       <c r="A357" t="s">
         <v>744</v>
       </c>
@@ -16412,7 +16418,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" ht="16.5">
       <c r="A358" t="s">
         <v>746</v>
       </c>
@@ -16426,7 +16432,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" ht="15.75">
       <c r="A359" t="s">
         <v>748</v>
       </c>
@@ -16440,7 +16446,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" ht="16.5">
       <c r="A360" t="s">
         <v>750</v>
       </c>
@@ -16454,7 +16460,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" ht="15.75">
       <c r="A361" t="s">
         <v>752</v>
       </c>
@@ -16468,7 +16474,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" ht="15.75">
       <c r="A362" t="s">
         <v>754</v>
       </c>
@@ -16482,7 +16488,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" ht="15.75">
       <c r="A363" t="s">
         <v>756</v>
       </c>
@@ -16496,7 +16502,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" ht="16.5">
       <c r="A364" t="s">
         <v>758</v>
       </c>
@@ -16510,7 +16516,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" ht="15.75">
       <c r="A365" t="s">
         <v>760</v>
       </c>
@@ -16524,7 +16530,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" ht="15.75">
       <c r="A366" t="s">
         <v>763</v>
       </c>
@@ -16538,7 +16544,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" ht="15.75">
       <c r="A367" t="s">
         <v>766</v>
       </c>
@@ -16552,7 +16558,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" ht="15.75">
       <c r="A368" t="s">
         <v>768</v>
       </c>
@@ -16566,7 +16572,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" ht="15.75">
       <c r="A369" t="s">
         <v>770</v>
       </c>
@@ -16580,7 +16586,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" ht="15.75">
       <c r="A370" t="s">
         <v>773</v>
       </c>
@@ -16594,7 +16600,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" ht="15.75">
       <c r="A371" t="s">
         <v>776</v>
       </c>
@@ -16608,7 +16614,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" ht="15.75">
       <c r="A372" t="s">
         <v>778</v>
       </c>
@@ -16622,7 +16628,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" ht="15.75">
       <c r="A373" t="s">
         <v>780</v>
       </c>
@@ -16636,7 +16642,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" ht="15.75">
       <c r="A374" t="s">
         <v>783</v>
       </c>
@@ -16650,7 +16656,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" ht="15.75">
       <c r="A375" t="s">
         <v>785</v>
       </c>
@@ -16664,7 +16670,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" ht="15.75">
       <c r="A376" t="s">
         <v>787</v>
       </c>
@@ -16678,7 +16684,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" ht="15.75">
       <c r="A377" t="s">
         <v>789</v>
       </c>
@@ -16692,7 +16698,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" ht="15.75">
       <c r="A378" t="s">
         <v>791</v>
       </c>
@@ -16706,7 +16712,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" ht="15.75">
       <c r="A379" t="s">
         <v>793</v>
       </c>
@@ -16720,7 +16726,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" ht="16.5">
       <c r="A380" t="s">
         <v>795</v>
       </c>
@@ -16734,7 +16740,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" ht="15.75">
       <c r="A381" t="s">
         <v>797</v>
       </c>
@@ -16748,7 +16754,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" ht="15.75">
       <c r="A382" t="s">
         <v>799</v>
       </c>
@@ -16762,7 +16768,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" ht="15.75">
       <c r="A383" t="s">
         <v>801</v>
       </c>
@@ -16776,7 +16782,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" ht="15.75">
       <c r="A384" t="s">
         <v>803</v>
       </c>
@@ -16790,7 +16796,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" ht="15.75">
       <c r="A385" t="s">
         <v>805</v>
       </c>
@@ -16804,7 +16810,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" ht="16.5">
       <c r="A386" t="s">
         <v>807</v>
       </c>
@@ -16818,7 +16824,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" ht="16.5">
       <c r="A387" t="s">
         <v>809</v>
       </c>
@@ -16832,7 +16838,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" ht="16.5">
       <c r="A388" t="s">
         <v>811</v>
       </c>
@@ -16846,7 +16852,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" ht="16.5">
       <c r="A389" t="s">
         <v>813</v>
       </c>
@@ -16860,7 +16866,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" ht="16.5">
       <c r="A390" t="s">
         <v>814</v>
       </c>
@@ -16874,7 +16880,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" ht="16.5">
       <c r="A391" t="s">
         <v>816</v>
       </c>
@@ -16888,7 +16894,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" ht="15.75">
       <c r="A392" t="s">
         <v>818</v>
       </c>
@@ -16902,7 +16908,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" ht="15.75">
       <c r="A393" t="s">
         <v>820</v>
       </c>
@@ -16916,7 +16922,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" ht="16.5">
       <c r="A394" t="s">
         <v>822</v>
       </c>
@@ -16930,7 +16936,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" ht="16.5">
       <c r="A395" t="s">
         <v>824</v>
       </c>
@@ -16944,7 +16950,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" ht="16.5">
       <c r="A396" t="s">
         <v>826</v>
       </c>
@@ -16958,7 +16964,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" ht="16.5">
       <c r="A397" t="s">
         <v>828</v>
       </c>
@@ -16972,7 +16978,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" ht="16.5">
       <c r="A398" t="s">
         <v>830</v>
       </c>
@@ -16986,7 +16992,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" ht="16.5">
       <c r="A399" t="s">
         <v>832</v>
       </c>
@@ -17000,7 +17006,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" ht="16.5">
       <c r="A400" t="s">
         <v>834</v>
       </c>
@@ -17014,7 +17020,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" ht="15.75">
       <c r="A401" t="s">
         <v>836</v>
       </c>
@@ -17028,7 +17034,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" ht="15.75">
       <c r="A402" t="s">
         <v>838</v>
       </c>
@@ -17042,7 +17048,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" ht="15.75">
       <c r="A403" t="s">
         <v>337</v>
       </c>
@@ -17056,7 +17062,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" ht="15.75">
       <c r="A404" t="s">
         <v>840</v>
       </c>
@@ -17070,7 +17076,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" ht="16.5">
       <c r="A405" t="s">
         <v>842</v>
       </c>
@@ -17084,7 +17090,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" ht="15.75">
       <c r="A406" t="s">
         <v>844</v>
       </c>
@@ -17098,7 +17104,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" ht="15.75">
       <c r="A407" t="s">
         <v>846</v>
       </c>
@@ -17112,7 +17118,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" ht="15.75">
       <c r="A408" t="s">
         <v>848</v>
       </c>
@@ -17126,7 +17132,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" ht="15.75">
       <c r="A409" t="s">
         <v>850</v>
       </c>
@@ -17140,7 +17146,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" ht="15.75">
       <c r="A410" t="s">
         <v>852</v>
       </c>
@@ -17154,7 +17160,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" ht="15.75">
       <c r="A411" t="s">
         <v>855</v>
       </c>
@@ -17168,7 +17174,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" ht="16.5">
       <c r="A412" t="s">
         <v>858</v>
       </c>
@@ -17182,7 +17188,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" ht="15.75">
       <c r="A413" t="s">
         <v>860</v>
       </c>
@@ -17196,7 +17202,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" ht="16.5">
       <c r="A414" t="s">
         <v>862</v>
       </c>
@@ -17210,7 +17216,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" ht="16.5">
       <c r="A415" t="s">
         <v>864</v>
       </c>
@@ -17224,7 +17230,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" ht="16.5">
       <c r="A416" t="s">
         <v>866</v>
       </c>
@@ -17238,7 +17244,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" ht="16.5">
       <c r="A417" t="s">
         <v>868</v>
       </c>
@@ -17252,7 +17258,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" ht="15.75">
       <c r="A418" t="s">
         <v>870</v>
       </c>
@@ -17266,7 +17272,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" ht="16.5">
       <c r="A419" t="s">
         <v>872</v>
       </c>
@@ -17280,7 +17286,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" ht="15.75">
       <c r="A420" t="s">
         <v>874</v>
       </c>
@@ -17294,7 +17300,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" ht="15.75">
       <c r="A421" t="s">
         <v>876</v>
       </c>
@@ -17308,7 +17314,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" ht="15.75">
       <c r="A422" t="s">
         <v>879</v>
       </c>
@@ -17322,7 +17328,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" ht="15.75">
       <c r="A423" t="s">
         <v>882</v>
       </c>
@@ -17336,7 +17342,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" ht="15.75">
       <c r="A424" t="s">
         <v>884</v>
       </c>
@@ -17350,7 +17356,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" ht="15.75">
       <c r="A425" t="s">
         <v>886</v>
       </c>
@@ -17364,7 +17370,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" ht="15.75">
       <c r="A426" t="s">
         <v>889</v>
       </c>
@@ -17378,7 +17384,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" ht="15.75">
       <c r="A427" t="s">
         <v>891</v>
       </c>
@@ -17392,7 +17398,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" ht="15.75">
       <c r="A428" t="s">
         <v>892</v>
       </c>
@@ -17406,7 +17412,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" ht="15.75">
       <c r="A429" t="s">
         <v>894</v>
       </c>
@@ -17420,7 +17426,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" ht="15.75">
       <c r="A430" t="s">
         <v>896</v>
       </c>
@@ -17434,7 +17440,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" ht="15.75">
       <c r="A431" t="s">
         <v>898</v>
       </c>
@@ -17448,7 +17454,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" ht="15.75">
       <c r="A432" t="s">
         <v>899</v>
       </c>
@@ -17462,7 +17468,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" ht="16.5">
       <c r="A433" t="s">
         <v>902</v>
       </c>
@@ -17476,7 +17482,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" ht="15.75">
       <c r="A434" t="s">
         <v>904</v>
       </c>
@@ -17490,7 +17496,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" ht="16.5">
       <c r="A435" t="s">
         <v>906</v>
       </c>
@@ -17504,7 +17510,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" ht="15.75">
       <c r="A436" t="s">
         <v>908</v>
       </c>
@@ -17518,7 +17524,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" ht="15.75">
       <c r="A437" t="s">
         <v>910</v>
       </c>
@@ -17532,7 +17538,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" ht="15.75">
       <c r="A438" t="s">
         <v>913</v>
       </c>
@@ -17546,7 +17552,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" ht="15.75">
       <c r="A439" t="s">
         <v>916</v>
       </c>
@@ -17560,7 +17566,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" ht="15.75">
       <c r="A440" t="s">
         <v>919</v>
       </c>
@@ -17574,7 +17580,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" ht="15.75">
       <c r="A441" t="s">
         <v>921</v>
       </c>
@@ -17588,7 +17594,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" ht="15.75">
       <c r="A442" t="s">
         <v>923</v>
       </c>
@@ -17602,7 +17608,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" ht="16.5">
       <c r="A443" t="s">
         <v>925</v>
       </c>
@@ -17616,7 +17622,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" ht="15.75">
       <c r="A444" t="s">
         <v>927</v>
       </c>
@@ -17630,7 +17636,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" ht="16.5">
       <c r="A445" t="s">
         <v>929</v>
       </c>
@@ -17644,7 +17650,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" ht="15.75">
       <c r="A446" t="s">
         <v>931</v>
       </c>
@@ -17658,7 +17664,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" ht="15.75">
       <c r="A447" t="s">
         <v>934</v>
       </c>
@@ -17672,7 +17678,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" ht="15.75">
       <c r="A448" t="s">
         <v>936</v>
       </c>
@@ -17686,7 +17692,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" ht="16.5">
       <c r="A449" t="s">
         <v>938</v>
       </c>
@@ -17700,7 +17706,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" ht="15.75">
       <c r="A450" t="s">
         <v>940</v>
       </c>
@@ -17714,7 +17720,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" ht="16.5">
       <c r="A451" t="s">
         <v>942</v>
       </c>
@@ -17728,7 +17734,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" ht="15.75">
       <c r="A452" t="s">
         <v>944</v>
       </c>
@@ -17742,7 +17748,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" ht="16.5">
       <c r="A453" t="s">
         <v>947</v>
       </c>
@@ -17756,7 +17762,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" ht="16.5">
       <c r="A454" t="s">
         <v>355</v>
       </c>
@@ -17770,7 +17776,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" ht="15.75">
       <c r="A455" t="s">
         <v>357</v>
       </c>
@@ -17784,7 +17790,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" ht="15.75">
       <c r="A456" t="s">
         <v>949</v>
       </c>
@@ -17798,7 +17804,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" ht="16.5">
       <c r="A457" t="s">
         <v>952</v>
       </c>
@@ -17812,7 +17818,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" ht="15.75">
       <c r="A458" t="s">
         <v>954</v>
       </c>
@@ -17826,7 +17832,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" ht="16.5">
       <c r="A459" t="s">
         <v>956</v>
       </c>
@@ -17840,7 +17846,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" ht="15.75">
       <c r="A460" t="s">
         <v>958</v>
       </c>
@@ -17854,7 +17860,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" ht="15.75">
       <c r="A461" t="s">
         <v>960</v>
       </c>
@@ -17868,7 +17874,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" ht="15.75">
       <c r="A462" t="s">
         <v>962</v>
       </c>
@@ -17882,7 +17888,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" ht="15.75">
       <c r="A463" t="s">
         <v>964</v>
       </c>
@@ -17896,7 +17902,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" ht="15.75">
       <c r="A464" t="s">
         <v>966</v>
       </c>
@@ -17910,7 +17916,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" ht="16.5">
       <c r="A465" t="s">
         <v>968</v>
       </c>
@@ -17924,7 +17930,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" ht="16.5">
       <c r="A466" t="s">
         <v>970</v>
       </c>
@@ -17938,7 +17944,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" ht="15.75">
       <c r="A467" t="s">
         <v>972</v>
       </c>
@@ -17952,7 +17958,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" ht="15.75">
       <c r="A468" t="s">
         <v>975</v>
       </c>
@@ -17966,7 +17972,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" ht="15.75">
       <c r="A469" t="s">
         <v>978</v>
       </c>
@@ -17980,7 +17986,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" ht="15.75">
       <c r="A470" t="s">
         <v>980</v>
       </c>
@@ -17994,7 +18000,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" ht="15.75">
       <c r="A471" t="s">
         <v>982</v>
       </c>
@@ -18008,7 +18014,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" ht="15.75">
       <c r="A472" t="s">
         <v>984</v>
       </c>
@@ -18022,7 +18028,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" ht="15.75">
       <c r="A473" t="s">
         <v>986</v>
       </c>
@@ -18036,7 +18042,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" ht="15.75">
       <c r="A474" t="s">
         <v>988</v>
       </c>
@@ -18050,7 +18056,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" ht="15.75">
       <c r="A475" t="s">
         <v>990</v>
       </c>
@@ -18064,7 +18070,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" ht="15.75">
       <c r="A476" t="s">
         <v>992</v>
       </c>
@@ -18078,7 +18084,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" ht="15.75">
       <c r="A477" t="s">
         <v>994</v>
       </c>
@@ -18092,7 +18098,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" ht="15.75">
       <c r="A478" t="s">
         <v>996</v>
       </c>
@@ -18106,7 +18112,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" ht="15.75">
       <c r="A479" t="s">
         <v>998</v>
       </c>
@@ -18120,7 +18126,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" ht="16.5">
       <c r="A480" t="s">
         <v>1000</v>
       </c>
@@ -18134,7 +18140,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" ht="16.5">
       <c r="A481" t="s">
         <v>1002</v>
       </c>
@@ -18148,7 +18154,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" ht="16.5">
       <c r="A482" t="s">
         <v>1004</v>
       </c>
@@ -18162,7 +18168,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" ht="15.75">
       <c r="A483" t="s">
         <v>1006</v>
       </c>
@@ -18176,7 +18182,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" ht="16.5">
       <c r="A484" t="s">
         <v>1008</v>
       </c>
@@ -18190,7 +18196,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" ht="15.75">
       <c r="A485" t="s">
         <v>1010</v>
       </c>
@@ -18204,7 +18210,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" ht="15.75">
       <c r="A486" t="s">
         <v>1013</v>
       </c>
@@ -18218,7 +18224,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" ht="15.75">
       <c r="A487" t="s">
         <v>1015</v>
       </c>
@@ -18232,7 +18238,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" ht="15.75">
       <c r="A488" t="s">
         <v>1017</v>
       </c>
@@ -18246,7 +18252,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" ht="15.75">
       <c r="A489" t="s">
         <v>1020</v>
       </c>
@@ -18260,7 +18266,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" ht="15.75">
       <c r="A490" t="s">
         <v>1022</v>
       </c>
@@ -18274,7 +18280,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" ht="15.75">
       <c r="A491" t="s">
         <v>1025</v>
       </c>
@@ -18288,7 +18294,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" ht="15.75">
       <c r="A492" t="s">
         <v>1027</v>
       </c>
@@ -18302,7 +18308,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" ht="16.5">
       <c r="A493" t="s">
         <v>1030</v>
       </c>
@@ -18316,7 +18322,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" ht="15.75">
       <c r="A494" t="s">
         <v>1032</v>
       </c>
@@ -18330,7 +18336,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" ht="16.5">
       <c r="A495" t="s">
         <v>1035</v>
       </c>
@@ -18344,7 +18350,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" ht="16.5">
       <c r="A496" t="s">
         <v>1037</v>
       </c>
@@ -18358,7 +18364,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" ht="15.75">
       <c r="A497" t="s">
         <v>1039</v>
       </c>
@@ -18372,7 +18378,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" ht="15.75">
       <c r="A498" t="s">
         <v>1041</v>
       </c>
@@ -18386,7 +18392,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" ht="16.5">
       <c r="A499" t="s">
         <v>1043</v>
       </c>
@@ -18400,7 +18406,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" ht="15.75">
       <c r="A500" t="s">
         <v>1045</v>
       </c>
@@ -18414,7 +18420,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" ht="15.75">
       <c r="A501" t="s">
         <v>1047</v>
       </c>
@@ -18428,7 +18434,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" ht="16.5">
       <c r="A502" t="s">
         <v>1049</v>
       </c>
@@ -18442,7 +18448,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" ht="16.5">
       <c r="A503" t="s">
         <v>1051</v>
       </c>
@@ -18456,7 +18462,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" ht="15.75">
       <c r="A504" t="s">
         <v>1053</v>
       </c>
@@ -18470,7 +18476,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" ht="15.75">
       <c r="A505" t="s">
         <v>1055</v>
       </c>
@@ -18484,7 +18490,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" ht="16.5">
       <c r="A506" t="s">
         <v>1057</v>
       </c>
@@ -18498,7 +18504,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" ht="15.75">
       <c r="A507" t="s">
         <v>1059</v>
       </c>
@@ -18512,7 +18518,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" ht="15.75">
       <c r="A508" t="s">
         <v>1061</v>
       </c>
@@ -18526,7 +18532,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" ht="15.75">
       <c r="A509" t="s">
         <v>1063</v>
       </c>
@@ -18540,7 +18546,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" ht="15.75">
       <c r="A510" t="s">
         <v>1065</v>
       </c>
@@ -18554,7 +18560,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" ht="16.5">
       <c r="A511" t="s">
         <v>1067</v>
       </c>
@@ -18568,7 +18574,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" ht="15.75">
       <c r="A512" t="s">
         <v>1069</v>
       </c>
@@ -18582,7 +18588,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" ht="15.75">
       <c r="A513" t="s">
         <v>735</v>
       </c>
@@ -18596,7 +18602,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" ht="15.75">
       <c r="A514" t="s">
         <v>1071</v>
       </c>
@@ -18610,7 +18616,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" ht="15.75">
       <c r="A515" t="s">
         <v>1073</v>
       </c>
@@ -18624,7 +18630,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" ht="16.5">
       <c r="A516" t="s">
         <v>1075</v>
       </c>
@@ -18638,7 +18644,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" ht="15.75">
       <c r="A517" t="s">
         <v>1077</v>
       </c>
@@ -18652,7 +18658,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" ht="15.75">
       <c r="A518" t="s">
         <v>1079</v>
       </c>
@@ -18666,7 +18672,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" ht="15.75">
       <c r="A519" t="s">
         <v>1081</v>
       </c>
@@ -18680,7 +18686,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" ht="15.75">
       <c r="A520" t="s">
         <v>1083</v>
       </c>
@@ -18694,7 +18700,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" ht="15.75">
       <c r="A521" t="s">
         <v>1086</v>
       </c>
@@ -18708,7 +18714,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" ht="15.75">
       <c r="A522" t="s">
         <v>1088</v>
       </c>
@@ -18722,7 +18728,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" ht="15.75">
       <c r="A523" t="s">
         <v>1089</v>
       </c>
@@ -18736,7 +18742,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" ht="15.75">
       <c r="A524" t="s">
         <v>1091</v>
       </c>
@@ -18750,7 +18756,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" ht="15.75">
       <c r="A525" t="s">
         <v>1093</v>
       </c>
@@ -18764,7 +18770,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" ht="15.75">
       <c r="A526" t="s">
         <v>1095</v>
       </c>
@@ -18778,7 +18784,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" ht="15.75">
       <c r="A527" t="s">
         <v>1098</v>
       </c>
@@ -18792,7 +18798,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" ht="15.75">
       <c r="A528" t="s">
         <v>1100</v>
       </c>
@@ -18806,7 +18812,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" ht="15.75">
       <c r="A529" t="s">
         <v>1102</v>
       </c>
@@ -18820,7 +18826,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" ht="15.75">
       <c r="A530" t="s">
         <v>1104</v>
       </c>
@@ -18834,7 +18840,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" ht="15.75">
       <c r="A531" t="s">
         <v>1106</v>
       </c>
@@ -18848,7 +18854,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" ht="15.75">
       <c r="A532" t="s">
         <v>1108</v>
       </c>
@@ -18862,7 +18868,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" ht="16.5">
       <c r="A533" t="s">
         <v>1111</v>
       </c>
@@ -18876,7 +18882,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" ht="15.75">
       <c r="A534" t="s">
         <v>1113</v>
       </c>
@@ -18890,7 +18896,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" ht="16.5">
       <c r="A535" t="s">
         <v>1115</v>
       </c>
@@ -18904,7 +18910,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" ht="16.5">
       <c r="A536" t="s">
         <v>1117</v>
       </c>
@@ -18918,7 +18924,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" ht="15.75">
       <c r="A537" t="s">
         <v>1119</v>
       </c>
@@ -18932,7 +18938,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" ht="15.75">
       <c r="A538" t="s">
         <v>1121</v>
       </c>
@@ -18946,7 +18952,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" ht="16.5">
       <c r="A539" t="s">
         <v>1123</v>
       </c>
@@ -18960,7 +18966,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" ht="16.5">
       <c r="A540" t="s">
         <v>1125</v>
       </c>
@@ -18974,7 +18980,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" ht="15.75">
       <c r="A541" t="s">
         <v>1127</v>
       </c>
@@ -18988,7 +18994,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" ht="15.75">
       <c r="A542" t="s">
         <v>1129</v>
       </c>
@@ -19002,7 +19008,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" ht="15.75">
       <c r="A543" t="s">
         <v>1131</v>
       </c>
@@ -19016,7 +19022,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" ht="15.75">
       <c r="A544" t="s">
         <v>1133</v>
       </c>
@@ -19030,7 +19036,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" ht="15.75">
       <c r="A545" t="s">
         <v>1134</v>
       </c>
@@ -19044,7 +19050,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" ht="15.75">
       <c r="A546" t="s">
         <v>1137</v>
       </c>
@@ -19058,7 +19064,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" ht="15.75">
       <c r="A547" t="s">
         <v>1139</v>
       </c>
@@ -19072,7 +19078,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" ht="15.75">
       <c r="A548" t="s">
         <v>1141</v>
       </c>
@@ -19086,7 +19092,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" ht="15.75">
       <c r="A549" t="s">
         <v>1143</v>
       </c>
@@ -19100,7 +19106,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" ht="15.75">
       <c r="A550" t="s">
         <v>1145</v>
       </c>
@@ -19114,7 +19120,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" ht="15.75">
       <c r="A551" t="s">
         <v>1147</v>
       </c>
@@ -19128,7 +19134,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" ht="15.75">
       <c r="A552" t="s">
         <v>1149</v>
       </c>
@@ -19142,7 +19148,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" ht="15.75">
       <c r="A553" t="s">
         <v>1152</v>
       </c>
@@ -19156,7 +19162,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" ht="15.75">
       <c r="A554" t="s">
         <v>1155</v>
       </c>
@@ -19170,7 +19176,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" ht="15.75">
       <c r="A555" t="s">
         <v>1158</v>
       </c>
@@ -19184,7 +19190,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" ht="15.75">
       <c r="A556" t="s">
         <v>1160</v>
       </c>
@@ -19198,7 +19204,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" ht="16.5">
       <c r="A557" t="s">
         <v>340</v>
       </c>
@@ -19212,7 +19218,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" ht="15.75">
       <c r="A558" t="s">
         <v>1162</v>
       </c>
@@ -19226,7 +19232,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" ht="16.5">
       <c r="A559" t="s">
         <v>1164</v>
       </c>
@@ -19240,7 +19246,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" ht="16.5">
       <c r="A560" t="s">
         <v>1166</v>
       </c>
@@ -19254,7 +19260,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" ht="15.75">
       <c r="A561" t="s">
         <v>1168</v>
       </c>
@@ -19268,7 +19274,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" ht="15.75">
       <c r="A562" t="s">
         <v>1170</v>
       </c>
@@ -19282,7 +19288,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" ht="15.75">
       <c r="A563" t="s">
         <v>1172</v>
       </c>
@@ -19296,7 +19302,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" ht="15.75">
       <c r="A564" t="s">
         <v>1174</v>
       </c>
@@ -19310,7 +19316,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" ht="16.5">
       <c r="A565" t="s">
         <v>1176</v>
       </c>
@@ -19324,7 +19330,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" ht="15.75">
       <c r="A566" t="s">
         <v>1178</v>
       </c>
@@ -19338,7 +19344,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" ht="15.75">
       <c r="A567" t="s">
         <v>1181</v>
       </c>
@@ -19352,7 +19358,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" ht="15.75">
       <c r="A568" t="s">
         <v>1183</v>
       </c>
@@ -19366,7 +19372,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" ht="16.5">
       <c r="A569" t="s">
         <v>1186</v>
       </c>
@@ -19380,7 +19386,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" ht="15.75">
       <c r="A570" t="s">
         <v>1188</v>
       </c>
@@ -19394,7 +19400,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" ht="15.75">
       <c r="A571" t="s">
         <v>1190</v>
       </c>
@@ -19408,7 +19414,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" ht="16.5">
       <c r="A572" t="s">
         <v>1192</v>
       </c>
@@ -19422,7 +19428,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" ht="15.75">
       <c r="A573" t="s">
         <v>1194</v>
       </c>
@@ -19436,7 +19442,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" ht="15.75">
       <c r="A574" t="s">
         <v>1197</v>
       </c>
@@ -19450,7 +19456,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" ht="15.75">
       <c r="A575" t="s">
         <v>1199</v>
       </c>
@@ -19464,7 +19470,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" ht="15.75">
       <c r="A576" t="s">
         <v>1200</v>
       </c>
@@ -19478,7 +19484,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" ht="15.75">
       <c r="A577" t="s">
         <v>1203</v>
       </c>
@@ -19492,7 +19498,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" ht="15.75">
       <c r="A578" t="s">
         <v>1205</v>
       </c>
@@ -19506,7 +19512,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" ht="16.5">
       <c r="A579" t="s">
         <v>1207</v>
       </c>
@@ -19520,7 +19526,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" ht="15.75">
       <c r="A580" t="s">
         <v>1209</v>
       </c>
@@ -19534,7 +19540,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" ht="16.5">
       <c r="A581" t="s">
         <v>1211</v>
       </c>
@@ -19548,7 +19554,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" ht="15.75">
       <c r="A582" t="s">
         <v>1213</v>
       </c>
@@ -19562,7 +19568,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" ht="16.5">
       <c r="A583" t="s">
         <v>1215</v>
       </c>
@@ -19576,7 +19582,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" ht="16.5">
       <c r="A584" t="s">
         <v>1217</v>
       </c>
@@ -19590,7 +19596,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" ht="16.5">
       <c r="A585" t="s">
         <v>1219</v>
       </c>
@@ -19604,7 +19610,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" ht="15.75">
       <c r="A586" t="s">
         <v>1221</v>
       </c>
@@ -19618,7 +19624,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" ht="16.5">
       <c r="A587" t="s">
         <v>1223</v>
       </c>
@@ -19632,7 +19638,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" ht="15.75">
       <c r="A588" t="s">
         <v>1225</v>
       </c>
@@ -19646,7 +19652,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" ht="15.75">
       <c r="A589" t="s">
         <v>1227</v>
       </c>
@@ -19660,7 +19666,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" ht="15.75">
       <c r="A590" t="s">
         <v>1229</v>
       </c>
@@ -19674,7 +19680,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" ht="15.75">
       <c r="A591" t="s">
         <v>1231</v>
       </c>
@@ -19688,7 +19694,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" ht="15.75">
       <c r="A592" t="s">
         <v>1233</v>
       </c>
@@ -19702,7 +19708,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" ht="15.75">
       <c r="A593" t="s">
         <v>1235</v>
       </c>
@@ -19716,7 +19722,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" ht="16.5">
       <c r="A594" t="s">
         <v>1238</v>
       </c>
@@ -19730,7 +19736,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" ht="15.75">
       <c r="A595" t="s">
         <v>1240</v>
       </c>
@@ -19744,7 +19750,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" ht="15.75">
       <c r="A596" t="s">
         <v>1242</v>
       </c>
@@ -19758,7 +19764,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" ht="16.5">
       <c r="A597" t="s">
         <v>1244</v>
       </c>
@@ -19772,7 +19778,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" ht="15.75">
       <c r="A598" t="s">
         <v>1246</v>
       </c>
@@ -19786,7 +19792,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" ht="15.75">
       <c r="A599" t="s">
         <v>1248</v>
       </c>
@@ -19800,7 +19806,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" ht="15.75">
       <c r="A600" t="s">
         <v>1250</v>
       </c>
@@ -19811,7 +19817,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" ht="16.5">
       <c r="A601" t="s">
         <v>1251</v>
       </c>
@@ -19825,7 +19831,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" ht="15.75">
       <c r="A602" t="s">
         <v>1253</v>
       </c>
@@ -19839,7 +19845,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" ht="15.75">
       <c r="A603" t="s">
         <v>1256</v>
       </c>
@@ -19853,7 +19859,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" ht="15.75">
       <c r="A604" t="s">
         <v>1258</v>
       </c>
@@ -19867,7 +19873,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" ht="15.75">
       <c r="A605" t="s">
         <v>1260</v>
       </c>
@@ -19881,7 +19887,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" ht="15.75">
       <c r="A606" t="s">
         <v>1263</v>
       </c>
@@ -19895,7 +19901,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" ht="15.75">
       <c r="A607" t="s">
         <v>1265</v>
       </c>
@@ -19909,7 +19915,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" ht="15.75">
       <c r="A608" t="s">
         <v>1267</v>
       </c>
@@ -19923,7 +19929,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" ht="15.75">
       <c r="A609" t="s">
         <v>1269</v>
       </c>
@@ -19937,7 +19943,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" ht="15.75">
       <c r="A610" t="s">
         <v>1271</v>
       </c>
@@ -19951,7 +19957,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" ht="16.5">
       <c r="A611" t="s">
         <v>1273</v>
       </c>
@@ -19965,7 +19971,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" ht="15.75">
       <c r="A612" t="s">
         <v>1275</v>
       </c>
@@ -19979,7 +19985,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" ht="16.5">
       <c r="A613" t="s">
         <v>1277</v>
       </c>
@@ -19993,7 +19999,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" ht="16.5">
       <c r="A614" t="s">
         <v>1279</v>
       </c>
@@ -20007,7 +20013,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" ht="15.75">
       <c r="A615" t="s">
         <v>1281</v>
       </c>
@@ -20021,7 +20027,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" ht="16.5">
       <c r="A616" t="s">
         <v>1282</v>
       </c>
@@ -20035,7 +20041,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" ht="16.5">
       <c r="A617" t="s">
         <v>1284</v>
       </c>
@@ -20049,7 +20055,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" ht="15.75">
       <c r="A618" t="s">
         <v>1285</v>
       </c>
@@ -20063,7 +20069,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4" ht="16.5">
       <c r="A619" t="s">
         <v>1287</v>
       </c>
@@ -20077,7 +20083,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" ht="15.75">
       <c r="A620" t="s">
         <v>1289</v>
       </c>
@@ -20091,7 +20097,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" ht="15.75">
       <c r="A621" t="s">
         <v>1291</v>
       </c>
@@ -20105,7 +20111,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" ht="16.5">
       <c r="A622" t="s">
         <v>1244</v>
       </c>
@@ -20119,7 +20125,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4" ht="15.75">
       <c r="A623" t="s">
         <v>1246</v>
       </c>
@@ -20133,7 +20139,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" ht="15.75">
       <c r="A624" t="s">
         <v>1293</v>
       </c>
@@ -20147,7 +20153,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" ht="15.75">
       <c r="A625" t="s">
         <v>1295</v>
       </c>
@@ -20161,7 +20167,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" ht="15.75">
       <c r="A626" t="s">
         <v>1297</v>
       </c>
@@ -20175,7 +20181,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" ht="15.75">
       <c r="A627" t="s">
         <v>1299</v>
       </c>
@@ -20186,7 +20192,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" ht="15.75">
       <c r="A628" t="s">
         <v>1300</v>
       </c>
@@ -20200,7 +20206,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" ht="16.5">
       <c r="A629" t="s">
         <v>1302</v>
       </c>
@@ -20214,7 +20220,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" ht="15.75">
       <c r="A630" t="s">
         <v>1304</v>
       </c>
@@ -20228,7 +20234,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" ht="16.5">
       <c r="A631" t="s">
         <v>1306</v>
       </c>
@@ -20242,7 +20248,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" ht="16.5">
       <c r="A632" t="s">
         <v>1308</v>
       </c>
@@ -20256,7 +20262,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" ht="15.75">
       <c r="A633" t="s">
         <v>1310</v>
       </c>
@@ -20270,7 +20276,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" ht="16.5">
       <c r="A634" t="s">
         <v>1312</v>
       </c>
@@ -20284,7 +20290,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" ht="15.75">
       <c r="A635" t="s">
         <v>1314</v>
       </c>
@@ -20298,7 +20304,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" ht="15.75">
       <c r="A636" t="s">
         <v>1316</v>
       </c>
@@ -20312,7 +20318,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" ht="15.75">
       <c r="A637" t="s">
         <v>1318</v>
       </c>
@@ -20326,7 +20332,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" ht="15.75">
       <c r="A638" t="s">
         <v>1320</v>
       </c>
@@ -20340,7 +20346,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" ht="16.5">
       <c r="A639" t="s">
         <v>1322</v>
       </c>
@@ -20354,7 +20360,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" ht="16.5">
       <c r="A640" t="s">
         <v>1217</v>
       </c>
@@ -20368,7 +20374,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" ht="16.5">
       <c r="A641" t="s">
         <v>1219</v>
       </c>
@@ -20382,7 +20388,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" ht="15.75">
       <c r="A642" t="s">
         <v>1325</v>
       </c>
@@ -20396,7 +20402,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" ht="16.5">
       <c r="A643" t="s">
         <v>1327</v>
       </c>
@@ -20410,7 +20416,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" ht="15.75">
       <c r="A644" t="s">
         <v>1260</v>
       </c>
@@ -20424,7 +20430,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" ht="15.75">
       <c r="A645" t="s">
         <v>1318</v>
       </c>
@@ -20438,7 +20444,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" ht="15.75">
       <c r="A646" t="s">
         <v>1329</v>
       </c>
@@ -20452,7 +20458,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" ht="15.75">
       <c r="A647" t="s">
         <v>1331</v>
       </c>
@@ -20466,7 +20472,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" ht="15.75">
       <c r="A648" t="s">
         <v>1333</v>
       </c>
@@ -20480,7 +20486,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" ht="15.75">
       <c r="A649" t="s">
         <v>1335</v>
       </c>
@@ -20494,7 +20500,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" ht="15.75">
       <c r="A650" t="s">
         <v>1338</v>
       </c>
@@ -20508,7 +20514,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" ht="15.75">
       <c r="A651" t="s">
         <v>1341</v>
       </c>
@@ -20522,7 +20528,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" ht="15.75">
       <c r="A652" t="s">
         <v>1344</v>
       </c>
@@ -20536,7 +20542,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" ht="16.5">
       <c r="A653" t="s">
         <v>1346</v>
       </c>
@@ -20550,7 +20556,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" ht="15.75">
       <c r="A654" t="s">
         <v>145</v>
       </c>
@@ -20564,7 +20570,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" ht="16.5">
       <c r="A655" t="s">
         <v>1349</v>
       </c>
@@ -20578,7 +20584,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" ht="16.5">
       <c r="A656" t="s">
         <v>1351</v>
       </c>
@@ -20592,7 +20598,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" ht="16.5">
       <c r="A657" t="s">
         <v>1353</v>
       </c>
@@ -20606,7 +20612,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" ht="15.75">
       <c r="A658" t="s">
         <v>1355</v>
       </c>
@@ -20620,7 +20626,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" ht="16.5">
       <c r="A659" t="s">
         <v>1357</v>
       </c>
@@ -20634,7 +20640,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" ht="15.75">
       <c r="A660" t="s">
         <v>1359</v>
       </c>
@@ -20648,7 +20654,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" ht="15.75">
       <c r="A661" t="s">
         <v>1361</v>
       </c>
@@ -20662,7 +20668,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" ht="15.75">
       <c r="A662" t="s">
         <v>1363</v>
       </c>
@@ -20676,7 +20682,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" ht="16.5">
       <c r="A663" t="s">
         <v>824</v>
       </c>
@@ -20690,7 +20696,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" ht="15.75">
       <c r="A664" t="s">
         <v>1365</v>
       </c>
@@ -20704,7 +20710,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" ht="15.75">
       <c r="A665" t="s">
         <v>1367</v>
       </c>
@@ -20718,7 +20724,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" ht="16.5">
       <c r="A666" t="s">
         <v>1370</v>
       </c>
@@ -20732,7 +20738,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" ht="16.5">
       <c r="A667" t="s">
         <v>1372</v>
       </c>
@@ -20746,7 +20752,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:4" ht="15.75">
       <c r="A668" t="s">
         <v>1374</v>
       </c>
@@ -20760,7 +20766,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" ht="15.75">
       <c r="A669" t="s">
         <v>1377</v>
       </c>
@@ -20774,7 +20780,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" ht="15.75">
       <c r="A670" t="s">
         <v>1379</v>
       </c>
@@ -20788,7 +20794,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:4" ht="15.75">
       <c r="A671" t="s">
         <v>1381</v>
       </c>
@@ -20802,7 +20808,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" ht="16.5">
       <c r="A672" t="s">
         <v>1383</v>
       </c>
@@ -20816,7 +20822,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" ht="16.5">
       <c r="A673" t="s">
         <v>1385</v>
       </c>
@@ -20830,7 +20836,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" ht="15.75">
       <c r="A674" t="s">
         <v>1387</v>
       </c>
@@ -20844,7 +20850,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" ht="15.75">
       <c r="A675" t="s">
         <v>1389</v>
       </c>
@@ -20858,7 +20864,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" ht="16.5">
       <c r="A676" t="s">
         <v>1391</v>
       </c>
@@ -20872,7 +20878,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" ht="15.75">
       <c r="A677" t="s">
         <v>1393</v>
       </c>
@@ -20886,7 +20892,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:4" ht="15.75">
       <c r="A678" t="s">
         <v>1395</v>
       </c>
@@ -20900,7 +20906,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:4" ht="15.75">
       <c r="A679" t="s">
         <v>1397</v>
       </c>
@@ -20914,7 +20920,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:4" ht="16.5">
       <c r="A680" t="s">
         <v>1399</v>
       </c>
@@ -20928,7 +20934,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:4" ht="15.75">
       <c r="A681" t="s">
         <v>1401</v>
       </c>
@@ -20942,7 +20948,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:4" ht="15.75">
       <c r="A682" t="s">
         <v>1404</v>
       </c>
@@ -20956,7 +20962,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:4" ht="15.75">
       <c r="A683" t="s">
         <v>1407</v>
       </c>
@@ -20970,7 +20976,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:4" ht="15.75">
       <c r="A684" t="s">
         <v>1410</v>
       </c>
@@ -20984,7 +20990,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:4" ht="16.5">
       <c r="A685" t="s">
         <v>1412</v>
       </c>
@@ -20998,7 +21004,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:4" ht="16.5">
       <c r="A686" t="s">
         <v>1414</v>
       </c>
@@ -21012,7 +21018,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:4" ht="15.75">
       <c r="A687" t="s">
         <v>1416</v>
       </c>
@@ -21026,7 +21032,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:4" ht="15.75">
       <c r="A688" t="s">
         <v>1418</v>
       </c>
@@ -21040,7 +21046,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:4" ht="15.75">
       <c r="A689" t="s">
         <v>1420</v>
       </c>
@@ -21054,7 +21060,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:4" ht="15.75">
       <c r="A690" t="s">
         <v>1422</v>
       </c>
@@ -21068,7 +21074,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:4" ht="15.75">
       <c r="A691" t="s">
         <v>1424</v>
       </c>
@@ -21082,7 +21088,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:4" ht="15.75">
       <c r="A692" t="s">
         <v>1426</v>
       </c>
@@ -21096,7 +21102,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:4" ht="15.75">
       <c r="A693" t="s">
         <v>1205</v>
       </c>
@@ -21110,7 +21116,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:4" ht="15.75">
       <c r="A694" t="s">
         <v>1428</v>
       </c>
@@ -21124,7 +21130,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:4" ht="15.75">
       <c r="A695" t="s">
         <v>1430</v>
       </c>
@@ -21138,7 +21144,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:4" ht="15.75">
       <c r="A696" t="s">
         <v>1433</v>
       </c>
@@ -21152,7 +21158,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:4" ht="16.5">
       <c r="A697" t="s">
         <v>1436</v>
       </c>
@@ -21166,7 +21172,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:4" ht="15.75">
       <c r="A698" t="s">
         <v>1438</v>
       </c>
@@ -21180,7 +21186,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:4" ht="16.5">
       <c r="A699" t="s">
         <v>1441</v>
       </c>
@@ -21194,7 +21200,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:4" ht="16.5">
       <c r="A700" t="s">
         <v>1443</v>
       </c>
@@ -21208,7 +21214,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:4" ht="16.5">
       <c r="A701" t="s">
         <v>1445</v>
       </c>
@@ -21222,7 +21228,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:4" ht="15.75">
       <c r="A702" t="s">
         <v>1447</v>
       </c>
@@ -21236,7 +21242,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:4" ht="15.75">
       <c r="A703" t="s">
         <v>1449</v>
       </c>
@@ -21250,7 +21256,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:4" ht="15.75">
       <c r="A704" t="s">
         <v>1451</v>
       </c>
@@ -21264,7 +21270,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:4" ht="15.75">
       <c r="A705" t="s">
         <v>1453</v>
       </c>
@@ -21278,7 +21284,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:4" ht="15.75">
       <c r="A706" t="s">
         <v>1455</v>
       </c>
@@ -21292,7 +21298,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:4" ht="15.75">
       <c r="A707" t="s">
         <v>1457</v>
       </c>
@@ -21306,7 +21312,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:4" ht="15.75">
       <c r="A708" t="s">
         <v>1459</v>
       </c>
@@ -21320,7 +21326,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:4" ht="15.75">
       <c r="A709" t="s">
         <v>1461</v>
       </c>
@@ -21334,7 +21340,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:4" ht="15.75">
       <c r="A710" t="s">
         <v>1463</v>
       </c>
@@ -21348,7 +21354,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:4" ht="15.75">
       <c r="A711" t="s">
         <v>1465</v>
       </c>
@@ -21362,7 +21368,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:4" ht="15.75">
       <c r="A712" t="s">
         <v>1379</v>
       </c>
@@ -21376,7 +21382,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:4" ht="15.75">
       <c r="A713" t="s">
         <v>1467</v>
       </c>
@@ -21390,7 +21396,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:4" ht="15.75">
       <c r="A714" t="s">
         <v>1469</v>
       </c>
@@ -21404,7 +21410,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:4" ht="15.75">
       <c r="A715" t="s">
         <v>1374</v>
       </c>
@@ -21418,7 +21424,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:4" ht="15.75">
       <c r="A716" t="s">
         <v>1377</v>
       </c>
@@ -21432,7 +21438,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:4" ht="15.75">
       <c r="A717" t="s">
         <v>1471</v>
       </c>
@@ -21446,7 +21452,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:4" ht="15.75">
       <c r="A718" t="s">
         <v>1473</v>
       </c>
@@ -21460,7 +21466,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:4" ht="15.75">
       <c r="A719" t="s">
         <v>1475</v>
       </c>
@@ -21474,7 +21480,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:4" ht="15.75">
       <c r="A720" t="s">
         <v>1463</v>
       </c>
@@ -21488,7 +21494,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:4" ht="16.5">
       <c r="A721" t="s">
         <v>1477</v>
       </c>
@@ -21502,7 +21508,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:4" ht="15.75">
       <c r="A722" t="s">
         <v>1479</v>
       </c>
@@ -21516,7 +21522,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:4" ht="15.75">
       <c r="A723" t="s">
         <v>1481</v>
       </c>
@@ -21530,7 +21536,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:4" ht="15.75">
       <c r="A724" t="s">
         <v>1483</v>
       </c>
@@ -21544,7 +21550,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:4" ht="15.75">
       <c r="A725" t="s">
         <v>1485</v>
       </c>
@@ -21558,7 +21564,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:4" ht="15.75">
       <c r="A726" t="s">
         <v>1487</v>
       </c>
@@ -21572,7 +21578,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:4" ht="15.75">
       <c r="A727" t="s">
         <v>1489</v>
       </c>
@@ -21586,7 +21592,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:4" ht="15.75">
       <c r="A728" t="s">
         <v>2057</v>
       </c>
@@ -21600,7 +21606,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:4" ht="15.75">
       <c r="A729" t="s">
         <v>2060</v>
       </c>
@@ -21614,7 +21620,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:4" ht="15.75">
       <c r="A730" t="s">
         <v>2064</v>
       </c>
@@ -21628,7 +21634,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:4" ht="15.75">
       <c r="A731" t="s">
         <v>2066</v>
       </c>
@@ -21642,7 +21648,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:4" ht="15.75">
       <c r="A732" t="s">
         <v>2069</v>
       </c>
@@ -21656,7 +21662,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:4" ht="15.75">
       <c r="A733" t="s">
         <v>2072</v>
       </c>
@@ -21670,7 +21676,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:4" ht="15.75">
       <c r="A734" t="s">
         <v>2075</v>
       </c>
@@ -21684,7 +21690,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:4" ht="15.75">
       <c r="A735" t="s">
         <v>2078</v>
       </c>
@@ -21698,7 +21704,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:4" ht="15.75">
       <c r="A736" t="s">
         <v>2081</v>
       </c>
@@ -21712,7 +21718,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:4" ht="15.75">
       <c r="A737" t="s">
         <v>2084</v>
       </c>
@@ -21726,7 +21732,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:4" ht="15.75">
       <c r="A738" t="s">
         <v>2087</v>
       </c>
@@ -21740,7 +21746,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:4" ht="15.75">
       <c r="A739" t="s">
         <v>2089</v>
       </c>
@@ -21754,7 +21760,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:4" ht="15.75">
       <c r="A740" t="s">
         <v>2092</v>
       </c>
@@ -21768,7 +21774,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:4" ht="15.75">
       <c r="A741" t="s">
         <v>2095</v>
       </c>
@@ -21782,7 +21788,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:4" ht="15.75">
       <c r="A742" t="s">
         <v>2098</v>
       </c>
@@ -21796,7 +21802,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:4" ht="15.75">
       <c r="A743" t="s">
         <v>2101</v>
       </c>
@@ -21810,7 +21816,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:4" ht="15.75">
       <c r="A744" t="s">
         <v>2104</v>
       </c>
@@ -21824,7 +21830,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:4" ht="15.75">
       <c r="A745" t="s">
         <v>2107</v>
       </c>
@@ -21838,7 +21844,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:4" ht="15.75">
       <c r="A746" t="s">
         <v>2110</v>
       </c>
@@ -21852,7 +21858,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:4" ht="15.75">
       <c r="A747" t="s">
         <v>2113</v>
       </c>
@@ -21866,7 +21872,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:4" ht="15.75">
       <c r="A748" t="s">
         <v>2116</v>
       </c>
@@ -21880,7 +21886,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:4" ht="16.5">
       <c r="A749" t="s">
         <v>2119</v>
       </c>
@@ -21894,7 +21900,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:4" ht="15.75">
       <c r="A750" t="s">
         <v>2123</v>
       </c>
@@ -21908,7 +21914,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:4">
       <c r="A751" t="s">
         <v>2140</v>
       </c>
@@ -21922,7 +21928,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:4">
       <c r="A752" t="s">
         <v>2150</v>
       </c>
@@ -21936,7 +21942,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:4">
       <c r="A753" t="s">
         <v>2149</v>
       </c>
@@ -21948,6 +21954,20 @@
       </c>
       <c r="D753" t="s">
         <v>2148</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4">
+      <c r="A754" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B754" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C754" t="s">
+        <v>2152</v>
+      </c>
+      <c r="D754" t="s">
+        <v>2153</v>
       </c>
     </row>
   </sheetData>
